--- a/SDG Financing Simplified model (Egypt)/v4_commented and cleaned/input/egypt_rawdata.xlsx
+++ b/SDG Financing Simplified model (Egypt)/v4_commented and cleaned/input/egypt_rawdata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Wi2050\SDG Financing Simplified model (Egypt)\v3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Yip/Desktop/github/Wi2050/SDG Financing Simplified model (Egypt)/v4_commented and cleaned/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9D20E0E-5918-4BF4-B7B7-B935EB9E4F47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9842ECB-36C9-414A-8A03-48CE7608F98C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2220" windowWidth="17232" windowHeight="8964" activeTab="7" xr2:uid="{C08041A2-26FA-1546-96A9-3AF9D6E0D334}"/>
+    <workbookView xWindow="3220" yWindow="1820" windowWidth="20260" windowHeight="12500" activeTab="2" xr2:uid="{C08041A2-26FA-1546-96A9-3AF9D6E0D334}"/>
   </bookViews>
   <sheets>
     <sheet name="age5yr" sheetId="1" r:id="rId1"/>
@@ -607,9 +607,9 @@
       <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>21</v>
       </c>
@@ -617,7 +617,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -628,7 +628,7 @@
         <v>6168.6030000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -639,7 +639,7 @@
         <v>5976.5259999999998</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -650,7 +650,7 @@
         <v>4698.3410000000003</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -661,7 +661,7 @@
         <v>4225.3509999999997</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -672,7 +672,7 @@
         <v>4105.3180000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -683,7 +683,7 @@
         <v>3998.2280000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -694,7 +694,7 @@
         <v>3999.18</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -705,7 +705,7 @@
         <v>3512.0459999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -716,7 +716,7 @@
         <v>2979.326</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -727,7 +727,7 @@
         <v>2481.3629999999998</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -738,7 +738,7 @@
         <v>2143.7069999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -749,7 +749,7 @@
         <v>1828.4459999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -760,7 +760,7 @@
         <v>1509.5060000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -771,7 +771,7 @@
         <v>1120.8789999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -782,7 +782,7 @@
         <v>907.74599999999998</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -793,7 +793,7 @@
         <v>500.34399999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -804,7 +804,7 @@
         <v>291.31599999999997</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -815,7 +815,7 @@
         <v>134.929</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -826,7 +826,7 @@
         <v>41.671999999999997</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -837,7 +837,7 @@
         <v>7.9260000000000002</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -848,7 +848,7 @@
         <v>0.78800000000000003</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="G25" t="s">
         <v>23</v>
       </c>
@@ -866,9 +866,9 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>58</v>
       </c>
@@ -876,7 +876,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -887,7 +887,7 @@
         <v>12.303401660160301</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -898,7 +898,7 @@
         <v>45.593210591135403</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -909,7 +909,7 @@
         <v>87.953933351756504</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -920,7 +920,7 @@
         <v>107.318717911465</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -931,7 +931,7 @@
         <v>64.672096873727895</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -942,7 +942,7 @@
         <v>15.404768433584101</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -962,13 +962,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DBDE8DC-4312-A640-9E2E-34549E8EA011}">
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>59</v>
       </c>
@@ -982,7 +982,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -999,7 +999,7 @@
         <v>99623.006393007905</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>5</v>
       </c>
@@ -1016,7 +1016,7 @@
         <v>99533.118418567698</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>10</v>
       </c>
@@ -1033,7 +1033,7 @@
         <v>99481.164602667603</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>15</v>
       </c>
@@ -1050,7 +1050,7 @@
         <v>99425.231256495797</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>20</v>
       </c>
@@ -1067,7 +1067,7 @@
         <v>99328.890837817802</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>25</v>
       </c>
@@ -1084,7 +1084,7 @@
         <v>99180.643361908107</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>30</v>
       </c>
@@ -1101,7 +1101,7 @@
         <v>98981.007986098703</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>35</v>
       </c>
@@ -1118,7 +1118,7 @@
         <v>98718.991690509007</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>40</v>
       </c>
@@ -1135,7 +1135,7 @@
         <v>98363.847381785599</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>45</v>
       </c>
@@ -1152,7 +1152,7 @@
         <v>97844.667530738603</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>50</v>
       </c>
@@ -1169,7 +1169,7 @@
         <v>97050.377513525105</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>55</v>
       </c>
@@ -1186,7 +1186,7 @@
         <v>95842.806455896905</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>60</v>
       </c>
@@ -1203,7 +1203,7 @@
         <v>94043.125609358802</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>65</v>
       </c>
@@ -1220,7 +1220,7 @@
         <v>91404.952270839902</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>70</v>
       </c>
@@ -1237,7 +1237,7 @@
         <v>87727.571804305393</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>75</v>
       </c>
@@ -1254,7 +1254,7 @@
         <v>81920.952065003701</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>80</v>
       </c>
@@ -1271,7 +1271,7 @@
         <v>72162.829294784198</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>85</v>
       </c>
@@ -1288,7 +1288,7 @@
         <v>57193.1158821754</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>90</v>
       </c>
@@ -1305,7 +1305,7 @@
         <v>37636.625400273901</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>95</v>
       </c>
@@ -1322,7 +1322,7 @@
         <v>18137.702414734598</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>100</v>
       </c>
@@ -1352,9 +1352,9 @@
       <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>26</v>
       </c>
@@ -1371,7 +1371,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>6</v>
       </c>
@@ -1391,7 +1391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>7</v>
       </c>
@@ -1411,7 +1411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>8</v>
       </c>
@@ -1431,7 +1431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>9</v>
       </c>
@@ -1451,7 +1451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>10</v>
       </c>
@@ -1471,7 +1471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>11</v>
       </c>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>12</v>
       </c>
@@ -1511,7 +1511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>13</v>
       </c>
@@ -1531,7 +1531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>14</v>
       </c>
@@ -1551,7 +1551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>15</v>
       </c>
@@ -1571,7 +1571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>16</v>
       </c>
@@ -1591,7 +1591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>17</v>
       </c>
@@ -1611,7 +1611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>18</v>
       </c>
@@ -1631,7 +1631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>19</v>
       </c>
@@ -1651,7 +1651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>20</v>
       </c>
@@ -1671,7 +1671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>21</v>
       </c>
@@ -1691,7 +1691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>22</v>
       </c>
@@ -1711,7 +1711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>23</v>
       </c>
@@ -1731,7 +1731,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>24</v>
       </c>
@@ -1764,9 +1764,9 @@
       <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>26</v>
       </c>
@@ -1783,7 +1783,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>6</v>
       </c>
@@ -1803,7 +1803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>7</v>
       </c>
@@ -1823,7 +1823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>8</v>
       </c>
@@ -1843,7 +1843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>9</v>
       </c>
@@ -1863,7 +1863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>10</v>
       </c>
@@ -1883,7 +1883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>11</v>
       </c>
@@ -1903,7 +1903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>12</v>
       </c>
@@ -1923,7 +1923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>13</v>
       </c>
@@ -1943,7 +1943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>14</v>
       </c>
@@ -1963,7 +1963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>15</v>
       </c>
@@ -1983,7 +1983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>16</v>
       </c>
@@ -2003,7 +2003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>17</v>
       </c>
@@ -2023,7 +2023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>18</v>
       </c>
@@ -2043,7 +2043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>19</v>
       </c>
@@ -2063,7 +2063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>20</v>
       </c>
@@ -2083,7 +2083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>21</v>
       </c>
@@ -2103,7 +2103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>22</v>
       </c>
@@ -2123,7 +2123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>23</v>
       </c>
@@ -2143,7 +2143,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>24</v>
       </c>
@@ -2176,9 +2176,9 @@
       <selection activeCell="C1" sqref="C1:J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C1" t="s">
         <v>31</v>
       </c>
@@ -2204,7 +2204,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>15</v>
       </c>
@@ -2236,7 +2236,7 @@
         <v>8122</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>25</v>
       </c>
@@ -2268,7 +2268,7 @@
         <v>7606</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>35</v>
       </c>
@@ -2300,7 +2300,7 @@
         <v>5515</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>45</v>
       </c>
@@ -2332,7 +2332,7 @@
         <v>4088</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>55</v>
       </c>
@@ -2364,7 +2364,7 @@
         <v>2832</v>
       </c>
     </row>
-    <row r="24" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H24" t="s">
         <v>39</v>
       </c>
@@ -2382,9 +2382,9 @@
       <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C1" t="s">
         <v>31</v>
       </c>
@@ -2410,7 +2410,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>15</v>
       </c>
@@ -2439,7 +2439,7 @@
         <v>2.87</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>25</v>
       </c>
@@ -2468,7 +2468,7 @@
         <v>24.04</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>35</v>
       </c>
@@ -2497,7 +2497,7 @@
         <v>12.6</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>45</v>
       </c>
@@ -2526,7 +2526,7 @@
         <v>11.47</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>55</v>
       </c>
@@ -2564,13 +2564,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6588C534-B574-CA46-BE34-C2A397DF97CA}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D1" t="s">
         <v>40</v>
       </c>
@@ -2578,7 +2578,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>42</v>
       </c>
@@ -2592,7 +2592,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>42</v>
       </c>
@@ -2606,7 +2606,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>42</v>
       </c>
@@ -2620,7 +2620,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>42</v>
       </c>
@@ -2637,7 +2637,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>42</v>
       </c>
@@ -2654,7 +2654,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>42</v>
       </c>
@@ -2671,7 +2671,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>42</v>
       </c>
